--- a/spliced/struggle/2023-04-11_10-08-57/gyroscope_selected.xlsx
+++ b/spliced/struggle/2023-04-11_10-08-57/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.9384417533874512</v>
+        <v>0.5199990272521973</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.677116870880127</v>
+        <v>-4.081954479217529</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5099197626113892</v>
+        <v>1.088714599609375</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.034972034394741</v>
+        <v>0.446847915649414</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.6041457056999207</v>
+        <v>-3.855323314666748</v>
       </c>
       <c r="C3" t="n">
-        <v>1.204626321792602</v>
+        <v>1.094059705734253</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.0742201283574104</v>
+        <v>-0.9384417533874512</v>
       </c>
       <c r="B4" t="n">
-        <v>3.885408401489258</v>
+        <v>-2.677116870880127</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.9509644508361816</v>
+        <v>0.5099197626113892</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.2799290120601654</v>
+        <v>0.034972034394741</v>
       </c>
       <c r="B5" t="n">
-        <v>5.545434474945068</v>
+        <v>-0.6041457056999207</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.251815557479858</v>
+        <v>1.204626321792602</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.960266590118408</v>
+        <v>-0.0742201283574104</v>
       </c>
       <c r="B6" t="n">
-        <v>3.989102840423584</v>
+        <v>3.885408401489258</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.11391282081604</v>
+        <v>-0.9509644508361816</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.471879839897156</v>
+        <v>-0.2799290120601654</v>
       </c>
       <c r="B7" t="n">
-        <v>3.605174064636231</v>
+        <v>5.545434474945068</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6311765313148499</v>
+        <v>-1.251815557479858</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.3701843321323395</v>
+        <v>-1.960266590118408</v>
       </c>
       <c r="B8" t="n">
-        <v>2.142762660980225</v>
+        <v>3.989102840423584</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7980954647064209</v>
+        <v>-1.11391282081604</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.1598939746618271</v>
+        <v>1.471879839897156</v>
       </c>
       <c r="B9" t="n">
-        <v>1.625817894935608</v>
+        <v>3.605174064636231</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7165449261665344</v>
+        <v>0.6311765313148499</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.1820378452539444</v>
+        <v>0.3701843321323395</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.18492591381073</v>
+        <v>2.142762660980225</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.6307183504104614</v>
+        <v>0.7980954647064209</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.4576907753944397</v>
+        <v>-0.1598939746618271</v>
       </c>
       <c r="B11" t="n">
-        <v>-3.009732961654663</v>
+        <v>1.625817894935608</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.6159048676490784</v>
+        <v>0.7165449261665344</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.5346598029136658</v>
+        <v>-0.1820378452539444</v>
       </c>
       <c r="B12" t="n">
-        <v>-5.662568092346191</v>
+        <v>-1.18492591381073</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0311541277915239</v>
+        <v>-0.6307183504104614</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.93095862865448</v>
+        <v>0.4576907753944397</v>
       </c>
       <c r="B13" t="n">
-        <v>-4.851797103881836</v>
+        <v>-3.009732961654663</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2988658249378204</v>
+        <v>-0.6159048676490784</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1.302822828292847</v>
+        <v>-0.5346598029136658</v>
       </c>
       <c r="B14" t="n">
-        <v>-4.308126926422119</v>
+        <v>-5.662568092346191</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2461786866188049</v>
+        <v>0.0311541277915239</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.484097123146057</v>
+        <v>-0.93095862865448</v>
       </c>
       <c r="B15" t="n">
-        <v>-4.448626041412354</v>
+        <v>-4.851797103881836</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.5797111392021179</v>
+        <v>0.2988658249378204</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-1.243263483047485</v>
+        <v>-1.302822828292847</v>
       </c>
       <c r="B16" t="n">
-        <v>4.786739826202393</v>
+        <v>-4.308126926422119</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0372627787292003</v>
+        <v>0.2461786866188049</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-2.078774452209473</v>
+        <v>1.484097123146057</v>
       </c>
       <c r="B17" t="n">
-        <v>6.594595909118652</v>
+        <v>-4.448626041412354</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.5763513445854187</v>
+        <v>-0.5797111392021179</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.0809396430850029</v>
+        <v>-1.243263483047485</v>
       </c>
       <c r="B18" t="n">
-        <v>3.65755558013916</v>
+        <v>4.786739826202393</v>
       </c>
       <c r="C18" t="n">
-        <v>-2.151620149612427</v>
+        <v>-0.0372627787292003</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.0555887371301651</v>
+        <v>-2.078774452209473</v>
       </c>
       <c r="B19" t="n">
-        <v>4.281401634216309</v>
+        <v>6.594595909118652</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0158824957907199</v>
+        <v>-0.5763513445854187</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.174388408660889</v>
+        <v>-0.0809396430850029</v>
       </c>
       <c r="B20" t="n">
-        <v>2.766455888748169</v>
+        <v>3.65755558013916</v>
       </c>
       <c r="C20" t="n">
-        <v>1.382998943328857</v>
+        <v>-2.151620149612427</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-0.0555887371301651</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4.281401634216309</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.0158824957907199</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1.174388408660889</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2.766455888748169</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.382998943328857</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
         <v>0.1893682330846786</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B23" t="n">
         <v>-0.1372919678688049</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C23" t="n">
         <v>0.0531452745199203</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.7247915863990784</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-2.964529037475586</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-2.036930084228516</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.9755517840385436</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-3.013092756271362</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.1954768747091293</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.0148134818300604</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-4.330729007720947</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.6641632318496704</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.2535090744495392</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-4.50192403793335</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.8677340745925903</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.0308486949652433</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-3.680310487747192</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.009607553482056</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.2924517393112182</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.6568328738212585</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.4216497242450714</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.683863639831543</v>
+      </c>
+      <c r="B30" t="n">
+        <v>4.383111000061035</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-1.505782842636108</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.6068946123123169</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4.862334728240967</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.4990769028663635</v>
       </c>
     </row>
   </sheetData>
